--- a/files/upload.xlsx
+++ b/files/upload.xlsx
@@ -34,7 +34,7 @@
     <t xml:space="preserve">TILL NO</t>
   </si>
   <si>
-    <t xml:space="preserve">RECEIPT NO.</t>
+    <t xml:space="preserve">RECEIPT NO</t>
   </si>
   <si>
     <t xml:space="preserve">STAFF NO,</t>
@@ -68,6 +68,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -171,6 +172,7 @@
     <dxf>
       <font>
         <name val="Lohit Devanagari"/>
+        <charset val="1"/>
         <family val="2"/>
       </font>
       <fill>
@@ -191,7 +193,7 @@
   <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E16" activeCellId="0" sqref="E16"/>
+      <selection pane="topLeft" activeCell="D6" activeCellId="0" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -361,7 +363,7 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B6" s="2" t="n">
         <v>20181021</v>
